--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191219/20191231上线端测结果.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2019/20191219/20191231上线端测结果.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>测试状态</t>
-  </si>
-  <si>
-    <t>测试负责人</t>
   </si>
   <si>
     <t>需求分析</t>
@@ -89,9 +86,6 @@
     <t>测试通过</t>
   </si>
   <si>
-    <t>沈健2小时</t>
-  </si>
-  <si>
     <t>CRM 428组数据产品下新增子产品集群音证，IBP需要根据订单中含有该子产品判断需要派发集群音证自动施工工单。</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>陈少锋</t>
   </si>
   <si>
-    <t>沈健+张轶晟2小时</t>
-  </si>
-  <si>
     <t>新增 679产品 SD-WAN国内组网，WOP方案新增SDWAN国内组网方案，CRM受理时填写DK编号下单，P7需要获取方案信息，无需综资调度资源，IBP派发信网部业务处理中心（WOP人工工单）、信网部综合运营监控中心（WOP人工工单）和客保外线工单。</t>
   </si>
   <si>
@@ -147,9 +138,6 @@
     <t>张轩</t>
   </si>
   <si>
-    <t>张轶晟 1.5小时</t>
-  </si>
-  <si>
     <t>CRM移动电话产品下的“云音助理呼转版”子产品新增属性“中继类型”，属性值“sip中继1”，“sip中继2”IBP需要承接新增字段并派给平台。</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
     <t>CRM订单号</t>
   </si>
   <si>
-    <t>发现人</t>
-  </si>
-  <si>
     <t>发现BUG时间</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
   </si>
   <si>
     <t>bug分类</t>
-  </si>
-  <si>
-    <t>沈健</t>
   </si>
   <si>
     <r>
@@ -312,9 +294,6 @@
   </si>
   <si>
     <t>集成问题</t>
-  </si>
-  <si>
-    <t>张轶晟</t>
   </si>
   <si>
     <t>新CRM受理SD-WAN国内组网新装订单时，配置页面缺少子产品与产品定义不符。</t>
@@ -741,12 +720,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -759,12 +732,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -773,6 +740,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,54 +1223,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR13"/>
+  <dimension ref="A1:IQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="14" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" style="14" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="14"/>
+    <col min="2" max="2" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="14" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:252" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:251" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="23" t="s">
@@ -1306,27 +1284,25 @@
       <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="R1" s="19"/>
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
       <c r="U1" s="19"/>
@@ -1560,57 +1536,54 @@
       <c r="IO1" s="19"/>
       <c r="IP1" s="19"/>
       <c r="IQ1" s="19"/>
-      <c r="IR1" s="19"/>
-    </row>
-    <row r="2" spans="1:252" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:251" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="27">
+        <v>4</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="29">
-        <v>4</v>
-      </c>
-      <c r="G2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="26">
+        <v>196116238</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="K2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="28">
-        <v>196116238</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="26">
+        <v>20191231</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="28">
-        <v>20191231</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
@@ -1844,31 +1817,30 @@
       <c r="IO2" s="20"/>
       <c r="IP2" s="20"/>
       <c r="IQ2" s="20"/>
-      <c r="IR2" s="20"/>
-    </row>
-    <row r="3" spans="1:252" ht="24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:251" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -2102,31 +2074,30 @@
       <c r="IO3" s="20"/>
       <c r="IP3" s="20"/>
       <c r="IQ3" s="20"/>
-      <c r="IR3" s="20"/>
-    </row>
-    <row r="4" spans="1:252" ht="24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:251" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
@@ -2360,31 +2331,30 @@
       <c r="IO4" s="20"/>
       <c r="IP4" s="20"/>
       <c r="IQ4" s="20"/>
-      <c r="IR4" s="20"/>
-    </row>
-    <row r="5" spans="1:252" ht="24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:251" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
@@ -2618,57 +2588,54 @@
       <c r="IO5" s="20"/>
       <c r="IP5" s="20"/>
       <c r="IQ5" s="20"/>
-      <c r="IR5" s="20"/>
-    </row>
-    <row r="6" spans="1:252" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:251" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="27">
+        <v>4</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="I6" s="26">
+        <v>196038100</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29">
-        <v>4</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="28" t="s">
+      <c r="K6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="26">
+        <v>196123368</v>
+      </c>
+      <c r="M6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="N6" s="26">
+        <v>20191231</v>
+      </c>
+      <c r="O6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="28">
-        <v>196038100</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="28">
-        <v>196123368</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="28">
-        <v>20191231</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
@@ -2902,31 +2869,30 @@
       <c r="IO6" s="20"/>
       <c r="IP6" s="20"/>
       <c r="IQ6" s="20"/>
-      <c r="IR6" s="20"/>
-    </row>
-    <row r="7" spans="1:252" ht="36" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:251" ht="36" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
@@ -3160,31 +3126,30 @@
       <c r="IO7" s="20"/>
       <c r="IP7" s="20"/>
       <c r="IQ7" s="20"/>
-      <c r="IR7" s="20"/>
-    </row>
-    <row r="8" spans="1:252" ht="36" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:251" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
@@ -3418,31 +3383,30 @@
       <c r="IO8" s="20"/>
       <c r="IP8" s="20"/>
       <c r="IQ8" s="20"/>
-      <c r="IR8" s="20"/>
-    </row>
-    <row r="9" spans="1:252" ht="36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:251" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
@@ -3676,57 +3640,54 @@
       <c r="IO9" s="21"/>
       <c r="IP9" s="21"/>
       <c r="IQ9" s="21"/>
-      <c r="IR9" s="21"/>
-    </row>
-    <row r="10" spans="1:252" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:251" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="27">
+        <v>4</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="26">
+        <v>196087864</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="K10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="26">
+        <v>196093547</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="26">
+        <v>20191231</v>
+      </c>
+      <c r="O10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="29">
-        <v>4</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="28">
-        <v>196087864</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="28">
-        <v>196093547</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="28">
-        <v>20191231</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
@@ -3960,31 +3921,30 @@
       <c r="IO10" s="21"/>
       <c r="IP10" s="21"/>
       <c r="IQ10" s="21"/>
-      <c r="IR10" s="21"/>
-    </row>
-    <row r="11" spans="1:252" ht="24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:251" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -4218,31 +4178,30 @@
       <c r="IO11" s="21"/>
       <c r="IP11" s="21"/>
       <c r="IQ11" s="21"/>
-      <c r="IR11" s="21"/>
-    </row>
-    <row r="12" spans="1:252" ht="24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:251" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
@@ -4476,33 +4435,32 @@
       <c r="IO12" s="21"/>
       <c r="IP12" s="21"/>
       <c r="IQ12" s="21"/>
-      <c r="IR12" s="21"/>
-    </row>
-    <row r="13" spans="1:252" ht="24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:251" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -4734,58 +4692,54 @@
       <c r="IO13" s="20"/>
       <c r="IP13" s="20"/>
       <c r="IQ13" s="20"/>
-      <c r="IR13" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="N10:N13"/>
+  <mergeCells count="45">
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="O10:O13"/>
-    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4795,10 +4749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4806,51 +4760,47 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.75" style="1"/>
     <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4858,30 +4808,27 @@
         <v>196116238</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="5">
         <v>43818.666666666701</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5">
         <v>43819.416666666701</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -4889,30 +4836,27 @@
         <v>196116238</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5">
         <v>43819.416666666701</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5">
         <v>43822.416666666701</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4920,30 +4864,27 @@
         <v>196116238</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5">
+        <v>43819.416666666701</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5">
-        <v>43819.416666666701</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -4951,32 +4892,29 @@
         <v>196116238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5">
         <v>43822.416666666701</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="5">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5">
         <v>43822.458333333299</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4984,30 +4922,27 @@
         <v>196038100</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <v>43819.416666666701</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5">
         <v>43822.416666666701</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="36.75" x14ac:dyDescent="0.15">
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -5015,32 +4950,29 @@
         <v>196038100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="5">
+        <v>60</v>
+      </c>
+      <c r="D7" s="5">
         <v>43822.416666666701</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>68</v>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5">
         <v>43823.375</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="73.5" x14ac:dyDescent="0.15">
+      <c r="J7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -5048,462 +4980,423 @@
         <v>196038100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="5">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5">
         <v>43822.458333333299</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>70</v>
+      <c r="E8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5">
         <v>43822.583333333299</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I9" s="12"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I10" s="12"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="11"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I11" s="12"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I13" s="12"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I14" s="12"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I15" s="12"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I16" s="12"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I17" s="12"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I18" s="12"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="11"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I19" s="12"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I20" s="12"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I21" s="12"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I22" s="12"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I23" s="12"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I24" s="12"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I25" s="12"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I26" s="12"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I27" s="12"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I28" s="12"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I29" s="12"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I30" s="12"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="11"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I31" s="12"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I32" s="12"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I33" s="12"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I34" s="12"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="11"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I35" s="12"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I36" s="12"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I37" s="12"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I38" s="12"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="11"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I39" s="12"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="10"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I40" s="12"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="10"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I41" s="12"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I42" s="12"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="10"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="10"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I43" s="12"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="11"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="10"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="9"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
